--- a/calc.xlsx
+++ b/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="350">
   <si>
     <t>Java</t>
   </si>
@@ -149,16 +149,43 @@
     <t>descrição SQL</t>
   </si>
   <si>
+    <t>NoSQL</t>
+  </si>
+  <si>
+    <t>descrição NoSQL</t>
+  </si>
+  <si>
     <t>MongoDB</t>
   </si>
   <si>
-    <t>descrição MongoDB</t>
+    <t>MongoDB é uma aplicação de código aberto, de alta performance, sem esquemas, orientado a documentos. Além de orientado a documentos, é formado por um conjunto de documentos JSON. Muitas aplicações podem, dessa forma, modelar informações de modo muito mais natural, pois os dados podem ser aninhados em hierarquias complexas e continuar a ser indexáveis e fáceis de buscar.</t>
   </si>
   <si>
     <t>MariaDB</t>
   </si>
   <si>
-    <t>descrição MariaDB</t>
+    <r>
+      <t xml:space="preserve">O desenvolvimento de MongoDB começou em outubro de 2007 pela </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10gen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. A primeira versão pública foi lançada em fevereiro de 2009</t>
+    </r>
   </si>
   <si>
     <t>SQLServer</t>
@@ -1105,7 +1132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1129,6 +1156,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1196,7 +1230,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1225,10 +1259,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="11:11 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1453,86 +1487,86 @@
         <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1563,75 +1597,75 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="3" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B36" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1640,9 +1674,9 @@
         <v>82</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1651,7 +1685,7 @@
         <v>84</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>85</v>
@@ -1662,18 +1696,18 @@
         <v>86</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>90</v>
@@ -1684,7 +1718,7 @@
         <v>91</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>92</v>
@@ -1695,7 +1729,7 @@
         <v>93</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>94</v>
@@ -1750,7 +1784,7 @@
         <v>103</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>104</v>
@@ -1761,7 +1795,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>106</v>
@@ -1783,7 +1817,7 @@
         <v>109</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>110</v>
@@ -1794,7 +1828,7 @@
         <v>111</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>112</v>
@@ -1805,7 +1839,7 @@
         <v>113</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>114</v>
@@ -1844,7 +1878,21 @@
         <v>120</v>
       </c>
     </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" display="10gen"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1862,8 +1910,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="11:11 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1879,168 +1927,168 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>0</v>
@@ -2050,22 +2098,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>0</v>
@@ -2075,22 +2123,22 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>0</v>
@@ -2100,22 +2148,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>0</v>
@@ -2125,22 +2173,22 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>0</v>
@@ -2150,22 +2198,22 @@
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2173,114 +2221,114 @@
     </row>
     <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>176</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2301,8 +2349,8 @@
   </sheetPr>
   <dimension ref="A2:D52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2316,321 +2364,321 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>0</v>
@@ -2638,394 +2686,394 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
